--- a/Подъемная сила Cy(а) (Автосохраненный).xlsx
+++ b/Подъемная сила Cy(а) (Автосохраненный).xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smeta\OneDrive\Рабочий стол\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smeta\OneDrive\Рабочий стол\BalDyn\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -428,7 +427,7 @@
   <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N23" sqref="N23"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -436,6 +435,7 @@
     <col min="1" max="6" width="12.7109375" customWidth="1"/>
     <col min="7" max="8" width="11.7109375" customWidth="1"/>
     <col min="9" max="10" width="12.7109375" customWidth="1"/>
+    <col min="11" max="11" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
